--- a/pred_ohlcv/54_21/2020-01-13 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LUNA ohlcv.xlsx
@@ -3928,7 +3928,7 @@
         <v>-82628.64356319998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-82334.65156319998</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-83535.14566319998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-83052.39566319998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-84788.70906319997</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-85121.57926319998</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-85578.56876319998</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-84811.19946319997</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-84252.22466319997</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-85834.59816319997</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-85228.41896319998</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-87270.70616319998</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-86860.62076319999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-88666.30976319998</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-88561.73976319998</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-89593.30156319997</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-89331.71156319998</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-88876.58186319997</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-90276.78226319997</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-92167.48716319998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-88450.96826319997</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-88547.00826319998</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-88110.11176319998</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-88264.49976319999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-88198.31676319998</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-92419.62599785997</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-91055.57359785997</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-91591.87949785998</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-91441.35809785998</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-92388.86969785998</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-91716.80399785997</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-92029.81879785997</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-92504.82419785998</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-95896.92899785998</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-135498.40649786</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-137270.3980978599</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-137428.0124978599</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-137571.7672978599</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-138015.7824978599</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-136735.6308978599</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-139981.7468978599</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-139630.4908978599</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-161422.5320978601</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-162769.1607978601</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-163137.7701978601</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-164916.06729786</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-171312.85889786</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-171186.9588978601</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-170322.46299786</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-171480.31169786</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-171217.54639786</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-170724.4589978601</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-172944.3602978601</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-172696.91029786</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-172608.04029786</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-172087.96469786</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-171399.31519786</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-170585.48319786</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-169474.74129786</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-212267.78109786</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-230709.4404978601</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-230593.4652978601</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LUNA ohlcv.xlsx
@@ -3564,7 +3564,7 @@
         <v>-83342.35536319997</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-83134.40236319997</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-83328.65046319997</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-83328.65046319997</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-83088.24416319997</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-83113.64416319996</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-82884.59436319997</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-82915.42436319997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-82453.54706319998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-82207.50916319998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-82416.94416319998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-82628.64356319998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-82334.65156319998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-83535.14566319998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-83052.39566319998</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-84788.70906319997</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-85121.57926319998</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-85578.56876319998</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-84811.19946319997</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-84252.22466319997</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-85834.59816319997</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-85228.41896319998</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-87270.70616319998</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-86860.62076319999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-88666.30976319998</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-88561.73976319998</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-89593.30156319997</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-89331.71156319998</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-88876.58186319997</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-90276.78226319997</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-92167.48716319998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-88450.96826319997</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-88547.00826319998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-88110.11176319998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-88264.49976319999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-88198.31676319998</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-89151.52986319998</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-87639.13486319997</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-88840.08086319997</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-88100.44486319997</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-89825.04566319997</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-92323.35166319997</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-90712.57066319996</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-90150.04069785996</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-92419.62599785997</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-91055.57359785997</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-91591.87949785998</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-91441.35809785998</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-92388.86969785998</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-91716.80399785997</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-92029.81879785997</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-92504.82419785998</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-95896.92899785998</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-96214.85449785998</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-135498.40649786</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-137270.3980978599</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-137428.0124978599</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-137571.7672978599</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-138015.7824978599</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-136735.6308978599</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-139981.7468978599</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-139630.4908978599</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-161422.5320978601</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-162769.1607978601</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-163137.7701978601</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-164916.06729786</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-171312.85889786</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-171186.9588978601</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-170322.46299786</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-171480.31169786</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-171217.54639786</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-170724.4589978601</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-172944.3602978601</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-172696.91029786</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-172608.04029786</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-172087.96469786</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-171399.31519786</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-170585.48319786</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-169474.74129786</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-212267.78109786</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-230709.4404978601</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-230593.4652978601</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
